--- a/tfmp deployment summary - output.xlsx
+++ b/tfmp deployment summary - output.xlsx
@@ -718,10 +718,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058BC65245809C941AFF1CEB845F83EA4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa75b9bb01d63bca84371d62fd3c7bf3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cee206c1-8e2a-47bb-a925-05472cb3fd58" xmlns:ns3="1d91e96d-068d-4da0-af39-1bee9ffb4948" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="434a9ef3388e7d321a4bf1f41090b444" ns2:_="" ns3:_="">
-    <xsd:import namespace="cee206c1-8e2a-47bb-a925-05472cb3fd58"/>
-    <xsd:import namespace="1d91e96d-068d-4da0-af39-1bee9ffb4948"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB07BDD83BA9BB4AB53E59B09CB747B8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98679ec708f18c00ebda3a8d1fc4ffe7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de5a8b73-b1a9-4f56-8ac9-32269f1cd870" xmlns:ns3="85b30af6-6fa2-42cd-9fb9-77456d6f7962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dcee442e7c1dbd9cf81185f658bf4ee" ns2:_="" ns3:_="">
+    <xsd:import namespace="de5a8b73-b1a9-4f56-8ac9-32269f1cd870"/>
+    <xsd:import namespace="85b30af6-6fa2-42cd-9fb9-77456d6f7962"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -730,15 +730,16 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -747,7 +748,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cee206c1-8e2a-47bb-a925-05472cb3fd58" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de5a8b73-b1a9-4f56-8ac9-32269f1cd870" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -760,55 +761,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="3be76f96-e7f0-4e7c-b4d8-bf0f4c547e18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="3be76f96-e7f0-4e7c-b4d8-bf0f4c547e18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d91e96d-068d-4da0-af39-1bee9ffb4948" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85b30af6-6fa2-42cd-9fb9-77456d6f7962" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -827,12 +828,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{87f8f094-00e8-4dab-a5d7-f0185d993f54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="85b30af6-6fa2-42cd-9fb9-77456d6f7962">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -937,9 +949,18 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cee206c1-8e2a-47bb-a925-05472cb3fd58">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de5a8b73-b1a9-4f56-8ac9-32269f1cd870">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85b30af6-6fa2-42cd-9fb9-77456d6f7962" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="de5a8b73-b1a9-4f56-8ac9-32269f1cd870" xsi:nil="true"/>
+    <SharedWithUsers xmlns="85b30af6-6fa2-42cd-9fb9-77456d6f7962">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
   </documentManagement>
 </p:properties>
 </file>
@@ -949,7 +970,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5182367-BC71-4E53-9A2F-490D660F3154}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EABE64-A0D8-42BD-B7B2-D29E6C989399}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
